--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1852517.664737254</v>
+        <v>1887836.420063022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914459</v>
+        <v>426806.9758914466</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478709</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>25.17354161800005</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>223.7581669003797</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>222.8034171219148</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>64.1386326986768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -992,10 +992,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.837102735344149</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>72.47049842454874</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1186,10 +1186,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>186.2783301735246</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>278.3950498704598</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>144.5623343749278</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>17.79417311172712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>53.27515195945723</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>73.90328094029422</v>
       </c>
       <c r="U13" t="n">
-        <v>131.9680216153336</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>312.5084139807071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>83.63518863045022</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>17.79417311172757</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>73.91737409206887</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>14.9669363435898</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>143.002506806423</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1940,10 +1940,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.29864623799256</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>104.4814346654897</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>105.8231508303655</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>113.2890242149638</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>384.1474754753064</v>
+        <v>14.0553850811354</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>34.3807559479629</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2219,13 +2219,13 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>154.798219566654</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.3027291048317</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.90328094029421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>91.495929825255</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>68.33426324323942</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2408,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.3277290573763</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2456,7 +2456,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
-        <v>113.945171585823</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>108.0529342638476</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>47.239591316294</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>207.9194034012394</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>250.4892214438343</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>45.43345970665899</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>67.50465687964521</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>123.6039762133036</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>73.27905858347448</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>141.0456964845336</v>
+        <v>90.51206582944647</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>213.6660840949156</v>
+        <v>164.1254863648505</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>46.75958868346267</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>74.15307578127809</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.26966088953597</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>90.51206582944647</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>45.43345970665899</v>
       </c>
       <c r="H33" t="n">
-        <v>43.76331341951682</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>13.11177630711067</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.4122186713595</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>41.7304968863031</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>95.58159169481856</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>100.8367104035708</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
-        <v>166.2436691137413</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>100.7038651316543</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>142.558195406707</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>101.1263580884077</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>44.48496200128744</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>17.44731957864699</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
         <v>197.3677099213027</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>48.93369702458393</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>80.79258128802711</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>156.1476216117421</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>124.447890651502</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>83.29896986725154</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.23959131629395</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.61011138094008</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>17.65416417600843</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>258.6428411762269</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>154.0969082539765</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>107.0403133273801</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>146.5623749521075</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>116.0152310063691</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.7059962668447</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C2" t="n">
-        <v>533.7059962668447</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D2" t="n">
-        <v>533.7059962668447</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>777.1547729109448</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>777.1547729109448</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>777.1547729109448</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V2" t="n">
-        <v>533.7059962668447</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W2" t="n">
-        <v>533.7059962668447</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>533.7059962668447</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y2" t="n">
-        <v>533.7059962668447</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V3" t="n">
-        <v>660.701031422288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W3" t="n">
-        <v>435.6470747334852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4603,16 +4603,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.9255531013317</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>613.4725238202047</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>464.5381141589534</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>956.1408901213997</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>956.1408901213997</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>956.1408901213997</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4758,19 +4758,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5536560184564</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4834,22 +4834,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
         <v>110.334904905842</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4956,13 +4956,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1165.457239343441</v>
+        <v>1207.398685057085</v>
       </c>
       <c r="C11" t="n">
-        <v>796.4947224030295</v>
+        <v>926.1915639758126</v>
       </c>
       <c r="D11" t="n">
-        <v>796.4947224030295</v>
+        <v>926.1915639758126</v>
       </c>
       <c r="E11" t="n">
-        <v>796.4947224030295</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F11" t="n">
-        <v>796.4947224030295</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5044,16 +5044,16 @@
         <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2294.965066653489</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2294.965066653489</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2294.965066653489</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>2294.965066653489</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W11" t="n">
-        <v>1942.196411383375</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X11" t="n">
-        <v>1942.196411383375</v>
+        <v>1597.538017032897</v>
       </c>
       <c r="Y11" t="n">
-        <v>1552.057079407563</v>
+        <v>1207.398685057085</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>976.4219282721347</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>801.9688989910077</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>653.0344893297564</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960993</v>
+        <v>493.7970343243009</v>
       </c>
       <c r="F12" t="n">
-        <v>221.5857653620315</v>
+        <v>347.2624763511859</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>209.2325888003475</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>102.6330373400958</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5132,13 +5132,13 @@
         <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5159,13 +5159,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1352.397564057157</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1144.637265292203</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
         <v>48.81975253256327</v>
@@ -5202,7 +5202,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5229,22 +5229,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>565.9883909531883</v>
       </c>
       <c r="U13" t="n">
-        <v>507.3371377460778</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="V13" t="n">
-        <v>507.3371377460778</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W13" t="n">
-        <v>217.9199677091171</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1108.538768364535</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="C14" t="n">
-        <v>792.873703737558</v>
+        <v>1348.261564365448</v>
       </c>
       <c r="D14" t="n">
-        <v>434.6080051308075</v>
+        <v>1348.261564365448</v>
       </c>
       <c r="E14" t="n">
-        <v>48.81975253256328</v>
+        <v>962.4733117672033</v>
       </c>
       <c r="F14" t="n">
-        <v>48.81975253256328</v>
+        <v>551.4874069775958</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256328</v>
+        <v>133.2997410481696</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5296,34 +5296,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P14" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2221.373021959851</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2221.373021959851</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V14" t="n">
-        <v>2221.373021959851</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W14" t="n">
-        <v>1868.604366689736</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X14" t="n">
-        <v>1495.138608428657</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y14" t="n">
-        <v>1495.138608428657</v>
+        <v>1717.224081305859</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439335</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628066</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015553</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E15" t="n">
-        <v>239.5596775960998</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F15" t="n">
-        <v>221.5857653620315</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.93751399838828</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883254</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L15" t="n">
-        <v>697.3559079137187</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M15" t="n">
         <v>1191.758623309281</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827628</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346857</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P15" t="n">
         <v>2440.987626628164</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494433</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.24906426269</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640016</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L16" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>565.9741554463453</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>338.2369225695239</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256328</v>
+        <v>96.53651143791075</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>980.4169119745457</v>
+        <v>1580.864443318165</v>
       </c>
       <c r="C17" t="n">
-        <v>611.454395034134</v>
+        <v>1580.864443318165</v>
       </c>
       <c r="D17" t="n">
-        <v>611.454395034134</v>
+        <v>1222.598744711415</v>
       </c>
       <c r="E17" t="n">
-        <v>611.454395034134</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F17" t="n">
-        <v>611.454395034134</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G17" t="n">
-        <v>193.2667291047077</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5533,34 +5533,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P17" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q17" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.924739284593</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W17" t="n">
-        <v>1757.156084014479</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X17" t="n">
-        <v>1757.156084014479</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="Y17" t="n">
-        <v>1367.016752038667</v>
+        <v>1580.864443318165</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>779.834467487422</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C18" t="n">
-        <v>605.381438206295</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D18" t="n">
-        <v>456.4470285450437</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E18" t="n">
-        <v>456.4470285450437</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F18" t="n">
-        <v>309.9124705719287</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G18" t="n">
-        <v>171.8825830210903</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>65.28303156083859</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521038</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368207</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U18" t="n">
-        <v>1853.051068437921</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V18" t="n">
-        <v>1617.898960206178</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W18" t="n">
-        <v>1363.661603477977</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X18" t="n">
-        <v>1155.810103272444</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y18" t="n">
-        <v>948.0498045074901</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>640.6381696807582</v>
+        <v>526.2048118878655</v>
       </c>
       <c r="C19" t="n">
-        <v>471.7019867528513</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="D19" t="n">
-        <v>364.8099152070275</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="E19" t="n">
-        <v>364.8099152070275</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="F19" t="n">
-        <v>217.9199677091172</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K19" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L19" t="n">
         <v>206.6297039190408</v>
@@ -5703,22 +5703,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>526.2048118878655</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>526.2048118878655</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6381696807582</v>
+        <v>526.2048118878655</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6381696807582</v>
+        <v>526.2048118878655</v>
       </c>
       <c r="X19" t="n">
-        <v>640.6381696807582</v>
+        <v>526.2048118878655</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.6381696807582</v>
+        <v>526.2048118878655</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1164.075721085085</v>
+        <v>859.7912685882286</v>
       </c>
       <c r="C20" t="n">
-        <v>795.1132041446738</v>
+        <v>859.7912685882286</v>
       </c>
       <c r="D20" t="n">
-        <v>436.8475055379233</v>
+        <v>859.7912685882286</v>
       </c>
       <c r="E20" t="n">
-        <v>436.8475055379233</v>
+        <v>474.0030159899844</v>
       </c>
       <c r="F20" t="n">
-        <v>436.8475055379233</v>
+        <v>63.0171112003768</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5752,19 +5752,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5785,19 +5785,19 @@
         <v>2221.37302195985</v>
       </c>
       <c r="U20" t="n">
-        <v>2221.37302195985</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V20" t="n">
-        <v>1890.310134616279</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W20" t="n">
-        <v>1537.541479346165</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="X20" t="n">
-        <v>1164.075721085085</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="Y20" t="n">
-        <v>1164.075721085085</v>
+        <v>1246.39110865235</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.3366797756757</v>
+        <v>773.6742338033508</v>
       </c>
       <c r="C21" t="n">
-        <v>782.8836504945488</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="D21" t="n">
-        <v>633.9492408332975</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>474.711785827842</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>328.177227854727</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>190.1473403038886</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
-        <v>83.54778884363691</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5867,16 +5867,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1795.401172494432</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1541.163815766231</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1333.312315560698</v>
+        <v>1149.649869588373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1125.552016795744</v>
+        <v>941.8895708234188</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
         <v>206.6297039190408</v>
@@ -5937,22 +5937,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>531.2414736152716</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581505</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X22" t="n">
-        <v>123.4695312601332</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
         <v>48.81975253256327</v>
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>938.0140410570364</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C23" t="n">
-        <v>938.0140410570364</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D23" t="n">
-        <v>938.0140410570364</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E23" t="n">
-        <v>552.2257884587921</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F23" t="n">
-        <v>141.2398836691845</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697323</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977595</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M23" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N23" t="n">
         <v>1672.394424063531</v>
       </c>
       <c r="O23" t="n">
-        <v>2037.925350935286</v>
+        <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
@@ -6019,22 +6019,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="V23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.21897135805</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="X23" t="n">
-        <v>1714.75321309697</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="Y23" t="n">
-        <v>1324.613881121158</v>
+        <v>1608.358028064767</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>842.2405468607036</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>667.7875175795766</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>518.8531079183253</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>359.6156529128699</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>359.6156529128699</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G24" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H24" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
         <v>2222.939999577549</v>
@@ -6101,19 +6101,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1680.30503957946</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1426.067682851258</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1218.216182645725</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1010.455883880772</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>157.9641305768538</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
         <v>93.687719323712</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>385.9536814748711</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W25" t="n">
-        <v>385.9536814748711</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X25" t="n">
-        <v>157.9641305768538</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.9641305768538</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1203.859608527166</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C26" t="n">
-        <v>1203.859608527166</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D26" t="n">
-        <v>845.5939099204151</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E26" t="n">
-        <v>459.8056573221708</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
         <v>48.81975253256327</v>
@@ -6226,13 +6226,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W26" t="n">
-        <v>1980.598780567099</v>
+        <v>1906.940323425486</v>
       </c>
       <c r="X26" t="n">
-        <v>1980.598780567099</v>
+        <v>1653.920907825653</v>
       </c>
       <c r="Y26" t="n">
-        <v>1590.459448591287</v>
+        <v>1263.781575849841</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>950.3620754742187</v>
       </c>
       <c r="C27" t="n">
-        <v>722.1845715439331</v>
+        <v>775.9090461930917</v>
       </c>
       <c r="D27" t="n">
-        <v>573.2501618826818</v>
+        <v>626.9746365318405</v>
       </c>
       <c r="E27" t="n">
-        <v>414.0127068772263</v>
+        <v>467.737181526385</v>
       </c>
       <c r="F27" t="n">
-        <v>267.4781489041113</v>
+        <v>321.20262355327</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>183.1727360024316</v>
       </c>
       <c r="H27" t="n">
         <v>114.9862139017798</v>
@@ -6308,22 +6308,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6338,19 +6338,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1788.426568192975</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1534.189211464774</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1326.337711259241</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1118.577412494287</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>419.8455905372281</v>
+        <v>515.785668455199</v>
       </c>
       <c r="C28" t="n">
-        <v>419.8455905372281</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D28" t="n">
-        <v>269.7289511248923</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E28" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
         <v>48.81975253256327</v>
@@ -6429,7 +6429,7 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Y28" t="n">
-        <v>419.8455905372281</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1158.255478203622</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C29" t="n">
-        <v>789.2929612632108</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D29" t="n">
-        <v>789.2929612632108</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E29" t="n">
-        <v>789.2929612632108</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F29" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6463,10 +6463,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6475,13 +6475,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2040.094374027286</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>1897.623973537858</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="V29" t="n">
-        <v>1897.623973537858</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="W29" t="n">
-        <v>1544.855318267744</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="X29" t="n">
-        <v>1544.855318267744</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="Y29" t="n">
-        <v>1544.855318267744</v>
+        <v>1959.421965531699</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.7751048338188</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C30" t="n">
-        <v>814.3220755526918</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D30" t="n">
-        <v>665.3876658914405</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
@@ -6551,16 +6551,16 @@
         <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6575,19 +6575,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1807.754349056116</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V30" t="n">
-        <v>1572.602240824373</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.602240824373</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.750740618841</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.990441853887</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>243.9647538760298</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>243.9647538760298</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>96.05166029363667</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>96.05166029363667</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>96.05166029363667</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256327</v>
@@ -6648,25 +6648,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>337.9988400551709</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1228.224832637497</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C32" t="n">
-        <v>859.2623156970856</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D32" t="n">
-        <v>859.2623156970856</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E32" t="n">
-        <v>859.2623156970856</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F32" t="n">
-        <v>448.276410907478</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G32" t="n">
-        <v>448.276410907478</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>118.789106966438</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
@@ -6730,22 +6730,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2221.373021959851</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>1967.593327971733</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>1967.593327971733</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>1614.824672701619</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="X32" t="n">
-        <v>1614.824672701619</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="Y32" t="n">
-        <v>1614.824672701619</v>
+        <v>1959.421965531699</v>
       </c>
     </row>
     <row r="33">
@@ -6758,37 +6758,37 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G33" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>231.0001539525012</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="C34" t="n">
-        <v>62.06397102459425</v>
+        <v>290.0535219226116</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>290.0535219226116</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G34" t="n">
         <v>48.81975253256327</v>
@@ -6900,10 +6900,10 @@
         <v>640.6381696807582</v>
       </c>
       <c r="X34" t="n">
-        <v>412.6486187827409</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y34" t="n">
-        <v>412.6486187827409</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.235634009152</v>
+        <v>1203.988237734842</v>
       </c>
       <c r="C35" t="n">
-        <v>825.27311706874</v>
+        <v>835.0257207944298</v>
       </c>
       <c r="D35" t="n">
-        <v>467.0074184619895</v>
+        <v>476.7600221876793</v>
       </c>
       <c r="E35" t="n">
-        <v>467.0074184619895</v>
+        <v>90.9717695894351</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>90.9717695894351</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>90.9717695894351</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,7 +6955,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
@@ -6967,22 +6967,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U35" t="n">
-        <v>2440.987626628164</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V35" t="n">
-        <v>2440.987626628164</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.440564310165</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.974806049085</v>
+        <v>1594.127569710653</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.835474073273</v>
+        <v>1203.988237734842</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T36" t="n">
-        <v>2055.017101482861</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U36" t="n">
-        <v>1826.839597552575</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>458.9897048505185</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="C37" t="n">
-        <v>458.9897048505185</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D37" t="n">
-        <v>458.9897048505185</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E37" t="n">
-        <v>357.2686289599586</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F37" t="n">
-        <v>357.2686289599586</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G37" t="n">
-        <v>188.1684137834047</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K37" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7128,19 +7128,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W37" t="n">
-        <v>640.6381696807582</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="X37" t="n">
-        <v>640.6381696807582</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="Y37" t="n">
-        <v>640.6381696807582</v>
+        <v>207.4609049796586</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1175.081213861455</v>
+        <v>1742.120141511361</v>
       </c>
       <c r="C38" t="n">
-        <v>1175.081213861455</v>
+        <v>1373.157624570949</v>
       </c>
       <c r="D38" t="n">
-        <v>1175.081213861455</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="E38" t="n">
-        <v>789.2929612632108</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F38" t="n">
-        <v>378.3070564736033</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G38" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256328</v>
@@ -7177,13 +7177,13 @@
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7207,19 +7207,19 @@
         <v>2371.897027894855</v>
       </c>
       <c r="U38" t="n">
-        <v>2269.749191441917</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V38" t="n">
-        <v>1938.686304098347</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="W38" t="n">
-        <v>1938.686304098347</v>
+        <v>1742.120141511361</v>
       </c>
       <c r="X38" t="n">
-        <v>1565.220545837267</v>
+        <v>1742.120141511361</v>
       </c>
       <c r="Y38" t="n">
-        <v>1175.081213861455</v>
+        <v>1742.120141511361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C39" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D39" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E39" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F39" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G39" t="n">
-        <v>155.419303992815</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H39" t="n">
         <v>48.81975253256328</v>
@@ -7265,40 +7265,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2423.364071498218</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V39" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W39" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>267.1839122529792</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C40" t="n">
-        <v>98.2477293250723</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D40" t="n">
-        <v>98.2477293250723</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E40" t="n">
-        <v>98.2477293250723</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F40" t="n">
-        <v>98.2477293250723</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G40" t="n">
-        <v>98.2477293250723</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256328</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>487.9764913965093</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="W40" t="n">
-        <v>487.9764913965093</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X40" t="n">
-        <v>487.9764913965093</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y40" t="n">
-        <v>267.1839122529792</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1207.480627192637</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.480627192637</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D41" t="n">
-        <v>1207.480627192637</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="E41" t="n">
-        <v>1207.480627192637</v>
+        <v>536.0319267884943</v>
       </c>
       <c r="F41" t="n">
-        <v>796.4947224030295</v>
+        <v>536.0319267884943</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3070564736033</v>
+        <v>536.0319267884943</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>206.5446228474543</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7444,19 +7444,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2315.282686576141</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>1984.21979923257</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W41" t="n">
-        <v>1984.21979923257</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X41" t="n">
-        <v>1984.21979923257</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y41" t="n">
-        <v>1594.080467256759</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F42" t="n">
-        <v>239.5596775960993</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256327</v>
@@ -7496,10 +7496,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7593,28 +7593,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>592.9214107754108</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>592.9214107754108</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>592.9214107754108</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U43" t="n">
-        <v>592.9214107754108</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.692097593841</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.859608527166</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>845.5939099204151</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>459.8056573221708</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
         <v>48.81975253256327</v>
@@ -7648,13 +7648,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7678,22 +7678,22 @@
         <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894854</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.897027894854</v>
+        <v>1637.247334110921</v>
       </c>
       <c r="W44" t="n">
-        <v>2371.897027894854</v>
+        <v>1637.247334110921</v>
       </c>
       <c r="X44" t="n">
-        <v>1998.431269633774</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.291937657963</v>
+        <v>1263.781575849841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>842.2405468607036</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C45" t="n">
-        <v>667.7875175795766</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D45" t="n">
-        <v>518.8531079183253</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E45" t="n">
-        <v>359.6156529128699</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2285.334183947379</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2085.972860794548</v>
       </c>
       <c r="U45" t="n">
-        <v>1915.457147811203</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V45" t="n">
-        <v>1680.30503957946</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W45" t="n">
-        <v>1426.067682851258</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X45" t="n">
-        <v>1218.216182645725</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y45" t="n">
-        <v>1010.455883880772</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="C46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="D46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="E46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="F46" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G46" t="n">
-        <v>196.8625555144901</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>196.8625555144901</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="V46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="W46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="X46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
       <c r="Y46" t="n">
-        <v>196.8625555144901</v>
+        <v>523.4510676541228</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194301</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617104</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085714</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725692</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194301</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.85469562617104</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>203.8252941185861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>340.482471640322</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>362.500170537178</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453154</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>86.87784190054771</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.90352707831033</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.22964479606718</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
         <v>157.0547409226243</v>
@@ -23439,7 +23439,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23469,19 +23469,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>151.5565796077591</v>
       </c>
       <c r="U13" t="n">
-        <v>154.319275032048</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>52.76447779030042</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>242.5572422711793</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597627</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>127.2750392816563</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>109.8151496063303</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>139.9606233844833</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>366.963433728672</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>183.1899240952066</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>49.20615051753185</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>92.88627525581298</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>42.79232218784681</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,7 +23943,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>112.1708363330895</v>
       </c>
       <c r="U19" t="n">
         <v>286.2872966473816</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>29.85831379482556</v>
+        <v>399.9504041889966</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597628</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>31.12404080756151</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>50.97476563682343</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>105.5752683717204</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6813724118006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>322.509859444877</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>149.084195378391</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>118.8554155636023</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>59.19388683478024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>178.4700640727432</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>141.3215653161736</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>119.2418792346347</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>91.216128968671</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>38.02889906600396</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>56.2280039686337</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.15490406309469</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24730,25 +24730,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>110.1962005637026</v>
+        <v>160.7298312187898</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,13 +24815,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>12.22964479606705</v>
+        <v>61.77024252613214</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>110.2951522391616</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24888,13 +24888,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>139.724921695274</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>91.20563146538953</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>258.7289028879666</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>91.216128968671</v>
       </c>
       <c r="H33" t="n">
-        <v>61.77024252613235</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>135.5036967111017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>75.02174397520967</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>284.4619340153264</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25207,16 +25207,16 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>253.6593770225945</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.69684554207835</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>31.12404080756139</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>45.73009751491486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25368,13 +25368,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>143.964802929884</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>150.1155389598285</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>304.7560067161256</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
         <v>65.50479675552441</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.62607740540655</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>108.1210438980404</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25596,7 +25596,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
         <v>213.8779974765521</v>
@@ -25608,10 +25608,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>171.3450620358009</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>4.327670743183404</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>126.7940063967342</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>53.35061880807845</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.69684554207879</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25833,22 +25833,22 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
-        <v>103.8954701851124</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>238.6771852664415</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>347.6187275949991</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
@@ -25918,13 +25918,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>69.109417293908</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.696845542078279</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>118.8554155636026</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>10.49236597051677</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26073,13 +26073,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>170.2720656410125</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>604531.3152924962</v>
+        <v>604531.3152924964</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>604531.3152924965</v>
+        <v>604531.3152924964</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604531.3152924965</v>
+        <v>604531.3152924964</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>604531.3152924964</v>
+        <v>604531.3152924965</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>604531.3152924962</v>
+        <v>604531.3152924964</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049981</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049983</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="F2" t="n">
-        <v>379599.3508404953</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="G2" t="n">
-        <v>379599.3508404951</v>
+        <v>379599.350840495</v>
       </c>
       <c r="H2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="I2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="J2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="K2" t="n">
-        <v>379599.3508404948</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="L2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="M2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="N2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="O2" t="n">
-        <v>379599.3508404947</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="P2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109308</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>35595.99830849798</v>
       </c>
       <c r="H4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="I4" t="n">
         <v>35595.99830849798</v>
@@ -26447,16 +26447,16 @@
         <v>35595.99830849798</v>
       </c>
       <c r="L4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="M4" t="n">
         <v>35595.99830849798</v>
       </c>
       <c r="N4" t="n">
-        <v>35595.99830849799</v>
+        <v>35595.99830849798</v>
       </c>
       <c r="O4" t="n">
-        <v>35595.99830849799</v>
+        <v>35595.99830849798</v>
       </c>
       <c r="P4" t="n">
         <v>35595.99830849798</v>
@@ -26481,16 +26481,16 @@
         <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="H5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
         <v>44136.03802033842</v>
@@ -26502,7 +26502,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033843</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133083.1641909718</v>
+        <v>133083.1641909719</v>
       </c>
       <c r="C6" t="n">
-        <v>213852.5957225196</v>
+        <v>213852.5957225193</v>
       </c>
       <c r="D6" t="n">
-        <v>213852.5957225194</v>
+        <v>213852.5957225195</v>
       </c>
       <c r="E6" t="n">
-        <v>-76536.90919485387</v>
+        <v>-70264.87707849483</v>
       </c>
       <c r="F6" t="n">
-        <v>292898.3899379266</v>
+        <v>299170.4220542853</v>
       </c>
       <c r="G6" t="n">
-        <v>292898.3899379265</v>
+        <v>299170.4220542854</v>
       </c>
       <c r="H6" t="n">
-        <v>292898.3899379264</v>
+        <v>299170.4220542854</v>
       </c>
       <c r="I6" t="n">
-        <v>292898.3899379264</v>
+        <v>299170.4220542853</v>
       </c>
       <c r="J6" t="n">
-        <v>229838.4473388201</v>
+        <v>236110.4794551791</v>
       </c>
       <c r="K6" t="n">
-        <v>292898.3899379261</v>
+        <v>299170.4220542853</v>
       </c>
       <c r="L6" t="n">
-        <v>292898.3899379263</v>
+        <v>299170.4220542854</v>
       </c>
       <c r="M6" t="n">
-        <v>200884.1446568331</v>
+        <v>207156.1767731923</v>
       </c>
       <c r="N6" t="n">
-        <v>292898.3899379263</v>
+        <v>299170.4220542854</v>
       </c>
       <c r="O6" t="n">
-        <v>292898.3899379261</v>
+        <v>299170.4220542853</v>
       </c>
       <c r="P6" t="n">
-        <v>292898.3899379263</v>
+        <v>299170.4220542854</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="H3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="I3" t="n">
         <v>322.6158759445108</v>
@@ -26801,16 +26801,16 @@
         <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="H4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
         <v>610.2469066570409</v>
@@ -26822,7 +26822,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="N4" t="n">
         <v>610.246906657041</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>199.8391668911481</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>183.8465279682453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>2.183215180595141</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>28.89156603900483</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>118.3441281936695</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>26.23646281822221</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>243.8578804255754</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>271.482174448785</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>255.9344878321999</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>342.8322390905863</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>81.55953011607097</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27985,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>65.41665298739503</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28028,16 +28028,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
@@ -31770,7 +31770,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
         <v>231.4177177265083</v>
@@ -31782,16 +31782,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
@@ -31855,22 +31855,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
         <v>0.04565318999214778</v>
@@ -31910,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223823</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
         <v>48.71499726762114</v>
@@ -31946,13 +31946,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L14" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P14" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223824</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
         <v>110.0768611093284</v>
@@ -32244,7 +32244,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
         <v>231.4177177265083</v>
@@ -32256,16 +32256,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
         <v>112.054233062727</v>
@@ -32329,22 +32329,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
         <v>0.04565318999214778</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223823</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
         <v>48.71499726762114</v>
@@ -32420,13 +32420,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
         <v>110.0768611093284</v>
@@ -32481,7 +32481,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M20" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
         <v>231.4177177265083</v>
@@ -32493,16 +32493,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q20" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
         <v>112.054233062727</v>
@@ -32566,22 +32566,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O21" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P21" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T21" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
         <v>0.04565318999214778</v>
@@ -32621,34 +32621,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223823</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
         <v>48.71499726762114</v>
@@ -32657,13 +32657,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T22" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
         <v>386.5629597537834</v>
@@ -35424,13 +35424,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891414</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35737,13 +35737,13 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831783</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
         <v>130.7783941571062</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L17" t="n">
         <v>386.5629597537834</v>
@@ -35898,13 +35898,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P17" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185922</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
         <v>130.7783941571062</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L20" t="n">
         <v>386.5629597537834</v>
@@ -36135,13 +36135,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O20" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P20" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36211,16 +36211,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
         <v>130.7783941571062</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
-        <v>226.3322895077443</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>374.1740901080621</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37159,7 +37159,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37399,13 +37399,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P36" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658877</v>
+        <v>385.0071659263362</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464915</v>
       </c>
       <c r="L41" t="n">
         <v>386.5629597537834</v>
@@ -37864,13 +37864,13 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695263</v>
       </c>
       <c r="M42" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38113,10 +38113,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
